--- a/pokemon_LeagueTable/帮战座位表20250308(中文版本).xlsx
+++ b/pokemon_LeagueTable/帮战座位表20250308(中文版本).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjhmy\Documents\GitHub\Pokemon\帮战表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fjhmy\Documents\GitHub\Pokemon\pokemon_LeagueTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AB2995-B9F8-4847-A02A-C27546D65420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBCC202-D0DF-43B2-867F-84C0680331E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="1188" windowWidth="30420" windowHeight="18012" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,16 +353,10 @@
     <t>凿壁偷光的保镖</t>
   </si>
   <si>
-    <t>新叶喵 奶绝</t>
-  </si>
-  <si>
     <t>淹没 奶约</t>
   </si>
   <si>
     <t>无敌挖掘机 花约</t>
-  </si>
-  <si>
-    <t>妮蔻 花约</t>
   </si>
   <si>
     <t>南山瑶 花约</t>
@@ -496,9 +490,6 @@
     <t>秋雨萧萧 纯凿</t>
   </si>
   <si>
-    <t>救救桃栀 纯凿（拆塔位）</t>
-  </si>
-  <si>
     <t>青古</t>
   </si>
   <si>
@@ -644,9 +635,6 @@
     <t>哈克龙（搬）</t>
   </si>
   <si>
-    <t>替补池：</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                    </t>
   </si>
@@ -1890,10 +1878,6 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>虚荣 清泉 纯凿 输出绝</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
     <t>槿屿 清泉 纯凿 输出绝</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
@@ -1914,10 +1898,6 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>拆神 水晶</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
     <t>遥遥书</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
@@ -1946,19 +1926,7 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>Touch Rainbow</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
     <t>冰冷心事 剑破</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>群龙 大蛇</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>收破烂 cw</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
@@ -2028,10 +1996,6 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>一昂 纯凿</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
     <t>小羊墨墨 炮</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
@@ -2061,14 +2025,6 @@
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
   <si>
-    <t>秋雨萧萧 清泉 纯凿 输出绝</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
-    <t>美味菠萝包 花田</t>
-    <phoneticPr fontId="40" type="noConversion"/>
-  </si>
-  <si>
     <t>莫清雨</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
@@ -2082,6 +2038,84 @@
   </si>
   <si>
     <t>夏有枫</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>脆薯饼 奶绝</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚荣 清泉 输出绝</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神 爱羽 cw</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>水晶</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>Understand Squid</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血 大蛇</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>救救桃栀 纯凿</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>清泉之神 秋雨萧萧 清泉 纯凿</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆神 一昂 清泉 纯凿</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙耶香 花田</t>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家人需要您的陪伴</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>♥</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="方正粗圆_GBK"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <phoneticPr fontId="40" type="noConversion"/>
+  </si>
+  <si>
+    <t>绚濑绘里 花约</t>
     <phoneticPr fontId="40" type="noConversion"/>
   </si>
 </sst>
@@ -2089,7 +2123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="49">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2425,14 +2459,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="4"/>
-      <name val="华文行楷"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="4" tint="-0.249977111117893"/>
       <name val="华文行楷"/>
       <family val="3"/>
@@ -2471,8 +2497,55 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="华文行楷"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="华文行楷"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="方正粗圆_GBK"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="23">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2602,6 +2675,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2778,7 +2857,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="200">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3187,32 +3266,38 @@
     <xf numFmtId="0" fontId="28" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3244,28 +3329,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3277,32 +3368,26 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3875,20 +3960,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="27" customHeight="1">
-      <c r="A1" s="148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="150"/>
+      <c r="A1" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="152"/>
     </row>
     <row r="2" spans="1:14" s="104" customFormat="1" ht="27" customHeight="1">
       <c r="A2" s="106"/>
@@ -3901,17 +3986,17 @@
       <c r="D2" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="151" t="s">
+      <c r="E2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151" t="s">
+      <c r="F2" s="153"/>
+      <c r="G2" s="153" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
       <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:14" ht="27" customHeight="1">
@@ -4073,14 +4158,14 @@
       <c r="D9" s="116"/>
       <c r="E9" s="116"/>
       <c r="F9" s="117"/>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="147"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="148"/>
+      <c r="L9" s="149"/>
     </row>
     <row r="10" spans="1:14" customFormat="1" ht="27" customHeight="1">
       <c r="A10" s="114">
@@ -4091,14 +4176,14 @@
       <c r="D10" s="119"/>
       <c r="E10" s="119"/>
       <c r="F10" s="119"/>
-      <c r="G10" s="152" t="s">
+      <c r="G10" s="154" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="156"/>
     </row>
     <row r="11" spans="1:14" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="114">
@@ -4109,14 +4194,14 @@
       <c r="D11" s="119"/>
       <c r="E11" s="119"/>
       <c r="F11" s="119"/>
-      <c r="G11" s="145" t="s">
+      <c r="G11" s="147" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="147"/>
+      <c r="H11" s="148"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="148"/>
+      <c r="K11" s="148"/>
+      <c r="L11" s="149"/>
     </row>
     <row r="12" spans="1:14" customFormat="1" ht="27" customHeight="1"/>
     <row r="13" spans="1:14" ht="27" customHeight="1">
@@ -4683,25 +4768,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="191" t="s">
-        <v>436</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="194" t="s">
-        <v>437</v>
-      </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
+      <c r="K1" s="196" t="s">
+        <v>433</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -4709,66 +4794,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6">
         <v>7</v>
@@ -4788,7 +4873,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L3" s="6">
         <v>0</v>
@@ -4820,7 +4905,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6">
         <v>7</v>
@@ -4840,7 +4925,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="L4" s="6">
         <v>0</v>
@@ -4872,7 +4957,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -4892,7 +4977,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -4944,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -4996,7 +5081,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -5028,7 +5113,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C8" s="6">
         <v>3</v>
@@ -5048,7 +5133,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -5100,7 +5185,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -5118,7 +5203,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>4</v>
@@ -5132,7 +5217,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
@@ -5152,7 +5237,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -5178,7 +5263,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
@@ -5198,7 +5283,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -5224,7 +5309,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -5244,7 +5329,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -5290,7 +5375,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -5318,7 +5403,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -5338,7 +5423,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -5364,7 +5449,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -5384,7 +5469,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -5432,7 +5517,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -5458,7 +5543,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -5478,7 +5563,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -5504,7 +5589,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -5524,7 +5609,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -5574,7 +5659,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -5596,7 +5681,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C21" s="6">
         <v>0</v>
@@ -5618,7 +5703,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -5662,7 +5747,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C24" s="6">
         <v>0</v>
@@ -5708,7 +5793,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C26" s="6">
         <v>0</v>
@@ -5800,7 +5885,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -5846,7 +5931,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -5870,7 +5955,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -5940,7 +6025,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C36" s="6">
         <v>0</v>
@@ -5964,7 +6049,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -6076,7 +6161,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -6142,7 +6227,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -6186,7 +6271,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -6247,25 +6332,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="191" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="194" t="s">
-        <v>457</v>
-      </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
+      <c r="K1" s="196" t="s">
+        <v>453</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -6273,66 +6358,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6">
         <v>41</v>
@@ -6352,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="L3" s="6">
         <v>10</v>
@@ -6404,7 +6489,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="L4" s="6">
         <v>13</v>
@@ -6436,7 +6521,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="6">
         <v>29</v>
@@ -6456,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="L5" s="6">
         <v>7</v>
@@ -6508,7 +6593,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L6" s="6">
         <v>22</v>
@@ -6552,7 +6637,7 @@
         <v>1153</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -6560,7 +6645,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="L7" s="6">
         <v>15</v>
@@ -6612,7 +6697,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="L8" s="6">
         <v>11</v>
@@ -6644,7 +6729,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C9" s="6">
         <v>14</v>
@@ -6664,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L9" s="6">
         <v>26</v>
@@ -6682,7 +6767,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>2</v>
@@ -6696,7 +6781,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C10" s="6">
         <v>26</v>
@@ -6716,7 +6801,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="L10" s="6">
         <v>19</v>
@@ -6762,7 +6847,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L11" s="6">
         <v>18</v>
@@ -6788,7 +6873,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C12" s="6">
         <v>21</v>
@@ -6808,7 +6893,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L12" s="6">
         <v>13</v>
@@ -6854,7 +6939,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="L13" s="6">
         <v>12</v>
@@ -6880,7 +6965,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C14" s="6">
         <v>17</v>
@@ -6900,7 +6985,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="L14" s="6">
         <v>9</v>
@@ -6926,7 +7011,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C15" s="6">
         <v>5</v>
@@ -6946,7 +7031,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L15" s="6">
         <v>15</v>
@@ -6972,7 +7057,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C16" s="6">
         <v>18</v>
@@ -6992,7 +7077,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="L16" s="6">
         <v>19</v>
@@ -7038,7 +7123,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L17" s="6">
         <v>9</v>
@@ -7066,7 +7151,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C18" s="6">
         <v>10</v>
@@ -7086,7 +7171,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L18" s="6">
         <v>9</v>
@@ -7132,7 +7217,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L19" s="6">
         <v>9</v>
@@ -7160,7 +7245,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C20" s="6">
         <v>9</v>
@@ -7180,7 +7265,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L20" s="6">
         <v>4</v>
@@ -7206,7 +7291,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C21" s="6">
         <v>15</v>
@@ -7226,7 +7311,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="L21" s="6">
         <v>10</v>
@@ -7272,7 +7357,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="L22" s="6">
         <v>11</v>
@@ -7298,7 +7383,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C23" s="6">
         <v>11</v>
@@ -7318,7 +7403,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="L23" s="6">
         <v>1</v>
@@ -7364,7 +7449,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L24" s="6">
         <v>7</v>
@@ -7390,7 +7475,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C25" s="6">
         <v>4</v>
@@ -7410,7 +7495,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="L25" s="6">
         <v>4</v>
@@ -7456,7 +7541,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="L26" s="6">
         <v>4</v>
@@ -7502,7 +7587,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L27" s="6">
         <v>10</v>
@@ -7548,7 +7633,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="L28" s="6">
         <v>5</v>
@@ -7594,7 +7679,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L29" s="6">
         <v>6</v>
@@ -7640,7 +7725,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="L30" s="6">
         <v>4</v>
@@ -7666,7 +7751,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C31" s="6">
         <v>7</v>
@@ -7686,7 +7771,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L31" s="6">
         <v>5</v>
@@ -7732,7 +7817,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -7758,7 +7843,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -7778,7 +7863,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L33" s="6">
         <v>2</v>
@@ -7804,7 +7889,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C34" s="6">
         <v>6</v>
@@ -7824,7 +7909,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -7852,7 +7937,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C35" s="6">
         <v>6</v>
@@ -7874,7 +7959,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="L35" s="6">
         <v>1</v>
@@ -7922,7 +8007,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="L36" s="6">
         <v>2</v>
@@ -7972,7 +8057,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -8022,7 +8107,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -8072,7 +8157,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -8100,7 +8185,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -8122,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -8150,7 +8235,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -8172,7 +8257,7 @@
         <v>39</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="L41" s="6">
         <v>0</v>
@@ -8200,7 +8285,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -8248,7 +8333,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -8320,7 +8405,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -8344,7 +8429,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -8501,25 +8586,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="191" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="194" t="s">
-        <v>500</v>
-      </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
+      <c r="K1" s="196" t="s">
+        <v>496</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -8527,66 +8612,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C3" s="6">
         <v>14</v>
@@ -8606,7 +8691,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="L3" s="6">
         <v>11</v>
@@ -8638,7 +8723,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6">
         <v>5</v>
@@ -8658,7 +8743,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -8710,7 +8795,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="L5" s="6">
         <v>6</v>
@@ -8742,7 +8827,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6">
         <v>0</v>
@@ -8762,7 +8847,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="L6" s="6">
         <v>3</v>
@@ -8814,7 +8899,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -8866,7 +8951,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
@@ -8898,7 +8983,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -8918,7 +9003,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -8936,7 +9021,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>3</v>
@@ -8950,7 +9035,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
@@ -8970,7 +9055,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -9016,7 +9101,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L11" s="6">
         <v>7</v>
@@ -9042,7 +9127,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -9062,7 +9147,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -9088,7 +9173,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -9110,7 +9195,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="L13" s="6">
         <v>2</v>
@@ -9156,7 +9241,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="L14" s="6">
         <v>3</v>
@@ -9182,7 +9267,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C15" s="6">
         <v>3</v>
@@ -9202,7 +9287,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
@@ -9248,7 +9333,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="L16" s="6">
         <v>2</v>
@@ -9296,7 +9381,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="L17" s="6">
         <v>1</v>
@@ -9322,7 +9407,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -9342,7 +9427,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="L18" s="6">
         <v>1</v>
@@ -9368,7 +9453,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -9388,7 +9473,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -9434,7 +9519,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="L20" s="6">
         <v>2</v>
@@ -9460,7 +9545,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -9480,7 +9565,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -9506,7 +9591,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -9528,7 +9613,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="L22" s="6">
         <v>0</v>
@@ -9554,7 +9639,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C23" s="6">
         <v>2</v>
@@ -9574,7 +9659,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -9602,7 +9687,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -9622,7 +9707,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -9670,7 +9755,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="L25" s="6">
         <v>0</v>
@@ -9718,7 +9803,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -9766,7 +9851,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -9812,7 +9897,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -9840,7 +9925,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -9860,7 +9945,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="L29" s="6">
         <v>0</v>
@@ -9908,7 +9993,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -9936,7 +10021,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -9956,7 +10041,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="L31" s="6">
         <v>0</v>
@@ -10002,7 +10087,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -10030,7 +10115,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -10050,7 +10135,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -10096,7 +10181,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -10142,7 +10227,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -10204,7 +10289,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -10240,7 +10325,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -10460,7 +10545,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -10484,7 +10569,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -10508,7 +10593,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -10532,7 +10617,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -10593,25 +10678,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="191" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="194" t="s">
-        <v>533</v>
-      </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
+      <c r="K1" s="196" t="s">
+        <v>529</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -10619,66 +10704,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -10694,7 +10779,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -10722,7 +10807,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
@@ -10738,7 +10823,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -10766,7 +10851,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -10782,7 +10867,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -10810,7 +10895,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -10826,7 +10911,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -10870,7 +10955,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -10898,7 +10983,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -10914,7 +10999,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -10942,7 +11027,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -10958,7 +11043,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -10972,7 +11057,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>11</v>
@@ -10986,7 +11071,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -11002,7 +11087,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -11040,7 +11125,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -11062,7 +11147,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -11078,7 +11163,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -11100,7 +11185,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -11116,7 +11201,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -11156,7 +11241,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -11180,7 +11265,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -11196,7 +11281,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -11234,7 +11319,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -11274,7 +11359,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -11296,7 +11381,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -11312,7 +11397,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -11350,7 +11435,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -11372,7 +11457,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -11388,7 +11473,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -11412,7 +11497,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -11428,7 +11513,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -11452,7 +11537,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -11468,7 +11553,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -11506,7 +11591,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -11544,7 +11629,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -11582,7 +11667,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -11606,7 +11691,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -11670,7 +11755,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
@@ -11734,7 +11819,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -11766,7 +11851,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
@@ -11798,7 +11883,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
@@ -11830,7 +11915,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -11862,7 +11947,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
@@ -11926,7 +12011,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -11958,7 +12043,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -11990,7 +12075,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
@@ -12054,7 +12139,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -12086,7 +12171,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -12104,7 +12189,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -12140,7 +12225,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -12158,7 +12243,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -12194,7 +12279,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -12212,7 +12297,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -12252,7 +12337,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -12272,7 +12357,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -12312,7 +12397,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="8"/>
@@ -12352,7 +12437,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -12372,7 +12457,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
@@ -12390,7 +12475,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -12411,7 +12496,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
@@ -12432,7 +12517,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -12450,7 +12535,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -12470,7 +12555,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -12539,25 +12624,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="191" t="s">
-        <v>562</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193" t="s">
+        <v>558</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="194" t="s">
-        <v>563</v>
-      </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
+      <c r="K1" s="196" t="s">
+        <v>559</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -12565,59 +12650,59 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
@@ -12810,7 +12895,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -14030,8 +14115,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="31.95" customHeight="1"/>
@@ -14044,8 +14129,8 @@
     <col min="6" max="6" width="25.44140625" style="40" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" style="40" customWidth="1"/>
     <col min="8" max="8" width="21.109375" style="40" customWidth="1"/>
-    <col min="9" max="9" width="31.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.21875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.77734375" style="40" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.77734375" style="40" customWidth="1"/>
     <col min="12" max="12" width="77.77734375" style="56" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" style="56" customWidth="1"/>
@@ -14057,19 +14142,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="38" customFormat="1" ht="43.95" customHeight="1">
-      <c r="A1" s="168" t="s">
-        <v>598</v>
-      </c>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="169"/>
-      <c r="I1" s="169"/>
-      <c r="J1" s="169"/>
-      <c r="K1" s="170"/>
+      <c r="A1" s="157" t="s">
+        <v>588</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+      <c r="F1" s="158"/>
+      <c r="G1" s="158"/>
+      <c r="H1" s="158"/>
+      <c r="I1" s="158"/>
+      <c r="J1" s="158"/>
+      <c r="K1" s="159"/>
       <c r="L1" s="81" t="s">
         <v>91</v>
       </c>
@@ -14080,24 +14165,24 @@
       <c r="A2" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="162" t="s">
+      <c r="B2" s="160" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="171" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="172" t="s">
+      <c r="E2" s="161"/>
+      <c r="F2" s="162" t="s">
         <v>95</v>
       </c>
-      <c r="G2" s="173"/>
-      <c r="H2" s="173"/>
-      <c r="I2" s="166" t="s">
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="174"/>
-      <c r="K2" s="167"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
       <c r="L2" s="84" t="s">
         <v>97</v>
       </c>
@@ -14111,25 +14196,25 @@
       <c r="A3" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="160" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163" t="s">
+      <c r="C3" s="160"/>
+      <c r="D3" s="167" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="164"/>
-      <c r="F3" s="165" t="s">
+      <c r="E3" s="168"/>
+      <c r="F3" s="169" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="165"/>
+      <c r="G3" s="169"/>
       <c r="H3" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="J3" s="167"/>
+      <c r="J3" s="166"/>
       <c r="K3" s="87" t="s">
         <v>105</v>
       </c>
@@ -14143,42 +14228,42 @@
         <v>1</v>
       </c>
       <c r="B4" s="59" t="s">
+        <v>594</v>
+      </c>
+      <c r="C4" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="59" t="s">
-        <v>107</v>
-      </c>
       <c r="D4" s="59" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="E4" s="59" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F4" s="59" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="G4" s="59" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J4" s="59" t="s">
+        <v>605</v>
+      </c>
+      <c r="K4" s="59" t="s">
+        <v>591</v>
+      </c>
+      <c r="L4" s="170" t="s">
         <v>109</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="L4" s="158" t="s">
-        <v>111</v>
       </c>
       <c r="M4" s="88"/>
       <c r="N4" s="89"/>
       <c r="P4" s="90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
@@ -14186,36 +14271,36 @@
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>568</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>581</v>
+      </c>
+      <c r="E5" s="61" t="s">
+        <v>595</v>
+      </c>
+      <c r="F5" s="59" t="s">
+        <v>603</v>
+      </c>
+      <c r="G5" s="59" t="s">
+        <v>571</v>
+      </c>
+      <c r="H5" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="61" t="s">
-        <v>574</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>590</v>
-      </c>
-      <c r="E5" s="61" t="s">
-        <v>566</v>
-      </c>
-      <c r="F5" s="59" t="s">
+      <c r="I5" s="145" t="s">
         <v>601</v>
       </c>
-      <c r="G5" s="59" t="s">
-        <v>577</v>
-      </c>
-      <c r="H5" s="61" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="61" t="s">
-        <v>600</v>
-      </c>
-      <c r="J5" s="61" t="s">
-        <v>595</v>
+      <c r="J5" s="144" t="s">
+        <v>602</v>
       </c>
       <c r="K5" s="61" t="s">
-        <v>567</v>
-      </c>
-      <c r="L5" s="158"/>
+        <v>562</v>
+      </c>
+      <c r="L5" s="170"/>
       <c r="M5" s="88"/>
       <c r="P5" s="91"/>
       <c r="Q5" s="90"/>
@@ -14225,37 +14310,37 @@
         <v>3</v>
       </c>
       <c r="B6" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="64" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="140" t="s">
+        <v>580</v>
+      </c>
+      <c r="E6" s="143" t="s">
+        <v>596</v>
+      </c>
+      <c r="F6" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="142" t="s">
-        <v>589</v>
-      </c>
-      <c r="E6" s="136" t="s">
-        <v>583</v>
-      </c>
-      <c r="F6" s="65" t="s">
+      <c r="G6" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="G6" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H6" s="66" t="s">
+      <c r="I6" s="66" t="s">
+        <v>133</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>593</v>
+      </c>
+      <c r="K6" s="70" t="s">
         <v>120</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>136</v>
-      </c>
-      <c r="J6" s="66" t="s">
-        <v>605</v>
-      </c>
-      <c r="K6" s="70" t="s">
-        <v>122</v>
-      </c>
-      <c r="L6" s="158" t="s">
-        <v>123</v>
+      <c r="L6" s="170" t="s">
+        <v>121</v>
       </c>
       <c r="M6" s="93"/>
       <c r="O6" s="94"/>
@@ -14267,42 +14352,42 @@
         <v>4</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>582</v>
-      </c>
-      <c r="C7" s="137" t="s">
-        <v>572</v>
-      </c>
-      <c r="D7" s="143" t="s">
-        <v>588</v>
-      </c>
-      <c r="E7" s="141" t="s">
-        <v>580</v>
-      </c>
-      <c r="F7" s="139" t="s">
+        <v>599</v>
+      </c>
+      <c r="C7" s="142" t="s">
+        <v>597</v>
+      </c>
+      <c r="D7" s="141" t="s">
+        <v>579</v>
+      </c>
+      <c r="E7" s="139" t="s">
+        <v>598</v>
+      </c>
+      <c r="F7" s="137" t="s">
+        <v>124</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H7" s="68" t="s">
-        <v>128</v>
-      </c>
-      <c r="I7" s="144" t="s">
-        <v>579</v>
+      <c r="I7" s="142" t="s">
+        <v>573</v>
       </c>
       <c r="J7" s="92" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="158"/>
+        <v>600</v>
+      </c>
+      <c r="L7" s="170"/>
       <c r="M7" s="93"/>
       <c r="N7" s="95" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
@@ -14310,212 +14395,212 @@
         <v>5</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="C8" s="72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D8" s="134" t="s">
-        <v>587</v>
+        <v>578</v>
       </c>
       <c r="E8" s="135" t="s">
-        <v>584</v>
-      </c>
-      <c r="F8" s="138" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>586</v>
+      </c>
+      <c r="H8" s="73" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="J8" s="72" t="s">
+        <v>567</v>
+      </c>
+      <c r="K8" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="G8" s="72" t="s">
-        <v>596</v>
-      </c>
-      <c r="H8" s="73" t="s">
+      <c r="L8" s="174" t="s">
         <v>135</v>
-      </c>
-      <c r="I8" s="63" t="s">
-        <v>121</v>
-      </c>
-      <c r="J8" s="72" t="s">
-        <v>573</v>
-      </c>
-      <c r="K8" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="L8" s="159" t="s">
-        <v>138</v>
       </c>
       <c r="M8" s="96"/>
       <c r="N8" s="95" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P8" s="51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
       <c r="A9" s="58">
         <v>6</v>
       </c>
-      <c r="B9" s="140" t="s">
-        <v>578</v>
+      <c r="B9" s="138" t="s">
+        <v>572</v>
       </c>
       <c r="C9" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>577</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>576</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="75" t="s">
-        <v>586</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>585</v>
-      </c>
-      <c r="F9" s="74" t="s">
+      <c r="I9" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="J9" s="74" t="s">
+        <v>590</v>
+      </c>
+      <c r="K9" s="74" t="s">
         <v>143</v>
       </c>
-      <c r="H9" s="70" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="J9" s="74" t="s">
-        <v>602</v>
-      </c>
-      <c r="K9" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="L9" s="159"/>
+      <c r="L9" s="174"/>
       <c r="M9" s="96"/>
       <c r="N9" s="91" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P9" s="91"/>
     </row>
     <row r="10" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A10" s="155" t="s">
-        <v>571</v>
-      </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="156"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="157"/>
-      <c r="L10" s="159"/>
+      <c r="A10" s="171" t="s">
+        <v>566</v>
+      </c>
+      <c r="B10" s="172"/>
+      <c r="C10" s="172"/>
+      <c r="D10" s="172"/>
+      <c r="E10" s="172"/>
+      <c r="F10" s="172"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="173"/>
+      <c r="L10" s="174"/>
       <c r="M10" s="96"/>
       <c r="N10" s="97" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P10" s="98" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A11" s="155" t="s">
-        <v>568</v>
-      </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="156"/>
-      <c r="G11" s="156"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156"/>
-      <c r="K11" s="157"/>
-      <c r="L11" s="160" t="s">
-        <v>150</v>
+      <c r="A11" s="171" t="s">
+        <v>563</v>
+      </c>
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="173"/>
+      <c r="L11" s="175" t="s">
+        <v>147</v>
       </c>
       <c r="M11" s="99"/>
       <c r="N11" s="100" t="s">
+        <v>148</v>
+      </c>
+      <c r="P11" s="100"/>
+    </row>
+    <row r="12" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A12" s="171" t="s">
+        <v>564</v>
+      </c>
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="O12" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="P12" s="91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
+      <c r="A13" s="171" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="173"/>
+      <c r="L13" s="133" t="s">
         <v>151</v>
-      </c>
-      <c r="P11" s="100"/>
-    </row>
-    <row r="12" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A12" s="155" t="s">
-        <v>569</v>
-      </c>
-      <c r="B12" s="156"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="156"/>
-      <c r="G12" s="156"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="101" t="s">
-        <v>152</v>
-      </c>
-      <c r="N12" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="O12" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="P12" s="91" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" s="39" customFormat="1" ht="31.95" customHeight="1">
-      <c r="A13" s="155" t="s">
-        <v>570</v>
-      </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="157"/>
-      <c r="L13" s="133" t="s">
-        <v>154</v>
       </c>
       <c r="M13" s="99"/>
       <c r="N13" s="90" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P13" s="103" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
-      <c r="B14" s="76" t="s">
-        <v>159</v>
+      <c r="B14" s="146" t="s">
+        <v>604</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="E14" s="69" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F14" s="61" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
     </row>
     <row r="15" spans="1:17" s="55" customFormat="1" ht="31.95" customHeight="1">
       <c r="A15" s="77" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="C15" s="59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
@@ -14534,44 +14619,34 @@
     <row r="19" spans="2:9" ht="31.95" customHeight="1">
       <c r="B19" s="78"/>
       <c r="C19" s="67" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D19" s="66" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E19" s="63" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F19" s="59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H19" s="60" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="I19" s="61" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="31.95" customHeight="1">
       <c r="D21" s="79" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E21" s="61" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="A13:K13"/>
     <mergeCell ref="L6:L7"/>
@@ -14579,6 +14654,16 @@
     <mergeCell ref="L11:L12"/>
     <mergeCell ref="A10:K10"/>
     <mergeCell ref="A11:K11"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
   </mergeCells>
   <phoneticPr fontId="40" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -14606,38 +14691,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="38" customFormat="1" ht="45">
-      <c r="A1" s="175" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="176"/>
-      <c r="C1" s="176"/>
-      <c r="D1" s="176"/>
-      <c r="E1" s="176"/>
-      <c r="F1" s="176"/>
-      <c r="G1" s="176"/>
-      <c r="H1" s="176"/>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
-      <c r="K1" s="177"/>
+      <c r="A1" s="177" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="179"/>
     </row>
     <row r="2" spans="1:14" ht="31.95" customHeight="1">
       <c r="A2" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="178" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="179" t="s">
-        <v>170</v>
-      </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
+      <c r="B2" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="181" t="s">
+        <v>166</v>
+      </c>
+      <c r="H2" s="181"/>
+      <c r="I2" s="181"/>
+      <c r="J2" s="181"/>
+      <c r="K2" s="182"/>
       <c r="M2" s="53"/>
     </row>
     <row r="3" spans="1:14" s="39" customFormat="1" ht="31.95" customHeight="1">
@@ -14645,34 +14730,34 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D3" s="43" t="s">
         <v>25</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F3" s="44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G3" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="J3" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="K3" s="43" t="s">
         <v>172</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>173</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="J3" s="43" t="s">
-        <v>175</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>176</v>
       </c>
       <c r="M3" s="45"/>
     </row>
@@ -14681,34 +14766,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E4" s="45" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I4" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J4" s="43" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K4" s="45" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M4" s="48"/>
       <c r="N4" s="45"/>
@@ -14721,31 +14806,31 @@
         <v>14</v>
       </c>
       <c r="C5" s="45" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="49" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G5" s="46" t="s">
         <v>44</v>
       </c>
       <c r="H5" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I5" s="48" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J5" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K5" s="48" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M5" s="49"/>
       <c r="N5" s="45"/>
@@ -14758,31 +14843,31 @@
         <v>27</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D6" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="I6" s="48" t="s">
         <v>191</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="J6" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" s="50" t="s">
+      <c r="K6" s="50" t="s">
         <v>193</v>
-      </c>
-      <c r="H6" s="47" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="48" t="s">
-        <v>195</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>197</v>
       </c>
       <c r="M6" s="52"/>
     </row>
@@ -14794,31 +14879,31 @@
         <v>19</v>
       </c>
       <c r="C7" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>198</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="H7" s="51" t="s">
         <v>199</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="I7" s="51" t="s">
         <v>200</v>
       </c>
-      <c r="F7" s="51" t="s">
+      <c r="J7" s="51" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="51" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>203</v>
-      </c>
-      <c r="I7" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>205</v>
-      </c>
       <c r="K7" s="51" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M7" s="51"/>
     </row>
@@ -14827,37 +14912,37 @@
         <v>6</v>
       </c>
       <c r="B8" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="D8" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="H8" s="52" t="s">
         <v>206</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="I8" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="52" t="s">
+      <c r="J8" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="52" t="s">
+      <c r="K8" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="G8" s="52" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="I8" s="50" t="s">
-        <v>211</v>
-      </c>
-      <c r="J8" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>213</v>
-      </c>
       <c r="M8" s="48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N8" s="47"/>
     </row>
@@ -14908,103 +14993,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="15" customFormat="1" ht="22.95" customHeight="1">
-      <c r="A1" s="181" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="182"/>
-      <c r="C1" s="182"/>
-      <c r="D1" s="182"/>
-      <c r="E1" s="182"/>
-      <c r="F1" s="182"/>
-      <c r="G1" s="182"/>
-      <c r="H1" s="182"/>
-      <c r="I1" s="182"/>
-      <c r="J1" s="182"/>
-      <c r="K1" s="182"/>
-      <c r="L1" s="182"/>
-      <c r="M1" s="183"/>
+      <c r="A1" s="183" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="185"/>
       <c r="N1" s="33"/>
       <c r="O1" s="33"/>
-      <c r="P1" s="184" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
+      <c r="P1" s="186" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
       <c r="T1" s="33"/>
-      <c r="U1" s="184" t="s">
-        <v>216</v>
-      </c>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
+      <c r="U1" s="186" t="s">
+        <v>212</v>
+      </c>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
     </row>
     <row r="2" spans="1:26" ht="23.4">
       <c r="A2" s="17"/>
       <c r="B2" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="G2" s="17"/>
       <c r="H2" s="19" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="17"/>
       <c r="O2" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>220</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>221</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
       <c r="V2" s="17"/>
       <c r="W2" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Z2" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16.2">
@@ -15012,7 +15097,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -15022,7 +15107,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="I3" s="34"/>
       <c r="J3" s="17"/>
@@ -15047,14 +15132,14 @@
         <v>44</v>
       </c>
       <c r="W3" s="17" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="X3" s="17"/>
       <c r="Y3" s="17" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Z3" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -15062,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -15083,7 +15168,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="P4" s="34"/>
       <c r="Q4" s="17"/>
@@ -15094,10 +15179,10 @@
         <v>2</v>
       </c>
       <c r="V4" s="21" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="W4" s="17" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="X4" s="17"/>
       <c r="Y4" s="17"/>
@@ -15108,7 +15193,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
@@ -15118,7 +15203,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="23" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="17"/>
@@ -15129,7 +15214,7 @@
         <v>3</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P5" s="35"/>
       <c r="Q5" s="17"/>
@@ -15152,7 +15237,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
@@ -15184,7 +15269,7 @@
         <v>4</v>
       </c>
       <c r="V6" s="23" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="W6" s="17"/>
       <c r="X6" s="17"/>
@@ -15196,7 +15281,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
@@ -15206,7 +15291,7 @@
         <v>5</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I7" s="34"/>
       <c r="J7" s="17"/>
@@ -15217,7 +15302,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P7" s="34"/>
       <c r="Q7" s="17"/>
@@ -15228,7 +15313,7 @@
         <v>5</v>
       </c>
       <c r="V7" s="36" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="W7" s="17"/>
       <c r="X7" s="17"/>
@@ -15250,7 +15335,7 @@
         <v>6</v>
       </c>
       <c r="H8" s="26" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I8" s="34"/>
       <c r="J8" s="17"/>
@@ -15261,7 +15346,7 @@
         <v>6</v>
       </c>
       <c r="O8" s="26" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P8" s="34"/>
       <c r="Q8" s="17"/>
@@ -15272,7 +15357,7 @@
         <v>6</v>
       </c>
       <c r="V8" s="26" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
@@ -15283,62 +15368,62 @@
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
       <c r="C9" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G9" s="17"/>
       <c r="H9" s="27" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J9" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K9" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L9" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
       <c r="O9" s="17"/>
       <c r="P9" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q9" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R9" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S9" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
       <c r="V9" s="17"/>
       <c r="W9" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="X9" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Y9" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -15346,7 +15431,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
@@ -15356,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -15378,7 +15463,7 @@
         <v>1</v>
       </c>
       <c r="V10" s="21" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="W10" s="17"/>
       <c r="X10" s="17"/>
@@ -15390,7 +15475,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
@@ -15400,7 +15485,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -15411,7 +15496,7 @@
         <v>2</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
@@ -15422,7 +15507,7 @@
         <v>2</v>
       </c>
       <c r="V11" s="37" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
@@ -15434,7 +15519,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C12" s="17"/>
       <c r="D12" s="17"/>
@@ -15444,7 +15529,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -15455,7 +15540,7 @@
         <v>3</v>
       </c>
       <c r="O12" s="36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="P12" s="17"/>
       <c r="Q12" s="17"/>
@@ -15466,7 +15551,7 @@
         <v>3</v>
       </c>
       <c r="V12" s="25" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
@@ -15478,7 +15563,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
@@ -15488,7 +15573,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -15510,7 +15595,7 @@
         <v>4</v>
       </c>
       <c r="V13" s="24" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="W13" s="17"/>
       <c r="X13" s="17"/>
@@ -15522,7 +15607,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -15532,7 +15617,7 @@
         <v>5</v>
       </c>
       <c r="H14" s="25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -15543,7 +15628,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P14" s="17"/>
       <c r="Q14" s="17"/>
@@ -15554,7 +15639,7 @@
         <v>5</v>
       </c>
       <c r="V14" s="36" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="W14" s="17"/>
       <c r="X14" s="17"/>
@@ -15566,7 +15651,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
@@ -15576,7 +15661,7 @@
         <v>6</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -15587,7 +15672,7 @@
         <v>6</v>
       </c>
       <c r="O15" s="26" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P15" s="17"/>
       <c r="Q15" s="17"/>
@@ -15598,7 +15683,7 @@
         <v>6</v>
       </c>
       <c r="V15" s="26" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="W15" s="17"/>
       <c r="X15" s="17"/>
@@ -15609,30 +15694,30 @@
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E16" s="31" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N16" s="17"/>
       <c r="O16" s="17"/>
       <c r="P16" s="17" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="17" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="R16" s="17" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="S16" s="17" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="T16" s="17"/>
     </row>
@@ -15641,7 +15726,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -15651,7 +15736,7 @@
         <v>1</v>
       </c>
       <c r="O17" s="21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
@@ -15664,7 +15749,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -15674,7 +15759,7 @@
         <v>2</v>
       </c>
       <c r="O18" s="21" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
@@ -15687,7 +15772,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -15697,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="O19" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
@@ -15710,7 +15795,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -15733,7 +15818,7 @@
         <v>5</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -15756,7 +15841,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -15766,7 +15851,7 @@
         <v>6</v>
       </c>
       <c r="O22" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P22" s="17"/>
       <c r="Q22" s="17"/>
@@ -15814,24 +15899,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="34.049999999999997" customHeight="1">
-      <c r="A1" s="185" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="186"/>
-      <c r="J1" s="186"/>
-      <c r="K1" s="186"/>
-      <c r="L1" s="186"/>
-      <c r="M1" s="186"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="186"/>
-      <c r="P1" s="187"/>
+      <c r="A1" s="187" t="s">
+        <v>259</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
+      <c r="I1" s="188"/>
+      <c r="J1" s="188"/>
+      <c r="K1" s="188"/>
+      <c r="L1" s="188"/>
+      <c r="M1" s="188"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="188"/>
+      <c r="P1" s="189"/>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1" ht="22.05" customHeight="1">
       <c r="A2" s="13"/>
@@ -15860,7 +15945,7 @@
         <v>7.13</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K2" s="13">
         <v>8.1999999999999993</v>
@@ -15880,22 +15965,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C3" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>269</v>
-      </c>
       <c r="G3" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>30</v>
@@ -15904,10 +15989,10 @@
         <v>22</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L3" s="14" t="s">
         <v>9</v>
@@ -15924,34 +16009,34 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>254</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="14" t="s">
-        <v>273</v>
       </c>
       <c r="L4" s="14" t="s">
         <v>18</v>
@@ -15966,22 +16051,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
@@ -15989,10 +16074,10 @@
       </c>
       <c r="J5" s="14"/>
       <c r="K5" s="14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
@@ -16007,26 +16092,26 @@
         <v>67</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
       <c r="I6" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
       <c r="L6" s="14" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
@@ -16038,16 +16123,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>67</v>
@@ -16068,16 +16153,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
@@ -16096,13 +16181,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
@@ -16126,7 +16211,7 @@
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="14"/>
@@ -16146,11 +16231,11 @@
         <v>9</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
@@ -16170,11 +16255,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -16194,11 +16279,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -16473,22 +16558,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="188" t="s">
-        <v>288</v>
-      </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="B1" s="190" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="189" t="s">
-        <v>289</v>
-      </c>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
+      <c r="K1" s="191" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -16499,66 +16584,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6">
         <v>15</v>
@@ -16578,7 +16663,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L3" s="6">
         <v>13</v>
@@ -16630,7 +16715,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L4" s="6">
         <v>6</v>
@@ -16662,7 +16747,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
@@ -16682,7 +16767,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -16736,7 +16821,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="L6" s="6">
         <v>4</v>
@@ -16788,7 +16873,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -16840,7 +16925,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="L8" s="6">
         <v>2</v>
@@ -16872,7 +16957,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -16892,7 +16977,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -16910,7 +16995,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>6</v>
@@ -16924,7 +17009,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -16944,7 +17029,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L10" s="6">
         <v>1</v>
@@ -16970,7 +17055,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -16990,7 +17075,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="L11" s="6">
         <v>1</v>
@@ -17016,7 +17101,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C12" s="6">
         <v>2</v>
@@ -17036,7 +17121,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L12" s="6">
         <v>1</v>
@@ -17062,7 +17147,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -17082,7 +17167,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -17128,7 +17213,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -17156,7 +17241,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -17176,7 +17261,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -17224,7 +17309,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -17272,7 +17357,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -17300,7 +17385,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -17320,7 +17405,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -17346,7 +17431,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C19" s="6">
         <v>2</v>
@@ -17368,7 +17453,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C20" s="6">
         <v>2</v>
@@ -17478,7 +17563,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C25" s="6">
         <v>1</v>
@@ -17588,7 +17673,7 @@
         <v>32</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -17610,7 +17695,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -17632,7 +17717,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -17676,7 +17761,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C34" s="6">
         <v>0</v>
@@ -17698,7 +17783,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -17764,7 +17849,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -17786,7 +17871,7 @@
         <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -17832,7 +17917,7 @@
         <v>37</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -17854,7 +17939,7 @@
         <v>48</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -17900,7 +17985,7 @@
         <v>41</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -17924,7 +18009,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -17946,7 +18031,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -17968,7 +18053,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -17992,7 +18077,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -18086,7 +18171,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -18108,7 +18193,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -18156,7 +18241,7 @@
         <v>55</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -18290,22 +18375,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="188" t="s">
-        <v>339</v>
-      </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="B1" s="190" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="189" t="s">
-        <v>340</v>
-      </c>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
+      <c r="K1" s="191" t="s">
+        <v>336</v>
+      </c>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -18316,59 +18401,59 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
@@ -18395,7 +18480,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="L3" s="6">
         <v>3</v>
@@ -18427,7 +18512,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C4" s="6">
         <v>16</v>
@@ -18447,7 +18532,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="L4" s="6">
         <v>2</v>
@@ -18499,7 +18584,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L5" s="6">
         <v>0</v>
@@ -18531,7 +18616,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -18551,7 +18636,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L6" s="6">
         <v>0</v>
@@ -18603,7 +18688,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="L7" s="6">
         <v>0</v>
@@ -18635,7 +18720,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
@@ -18655,7 +18740,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -18687,7 +18772,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
@@ -18707,7 +18792,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -18725,7 +18810,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>6</v>
@@ -18759,7 +18844,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -18785,7 +18870,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -18805,7 +18890,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="L11" s="6">
         <v>2</v>
@@ -18851,7 +18936,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -18897,7 +18982,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -18923,7 +19008,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C14" s="6">
         <v>2</v>
@@ -18943,7 +19028,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -18969,7 +19054,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C15" s="6">
         <v>2</v>
@@ -18989,7 +19074,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -19035,7 +19120,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -19061,7 +19146,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -19081,7 +19166,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -19107,7 +19192,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C18" s="6">
         <v>1</v>
@@ -19127,7 +19212,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -19175,7 +19260,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="L19" s="6">
         <v>0</v>
@@ -19221,7 +19306,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="L20" s="6">
         <v>0</v>
@@ -19267,7 +19352,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -19293,7 +19378,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -19315,7 +19400,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -19403,7 +19488,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C27" s="6">
         <v>0</v>
@@ -19425,7 +19510,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C28" s="6">
         <v>0</v>
@@ -19469,7 +19554,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -19491,7 +19576,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -19513,7 +19598,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -19535,7 +19620,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C33" s="6">
         <v>1</v>
@@ -19581,7 +19666,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -19647,7 +19732,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -19669,7 +19754,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -19715,7 +19800,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -19761,7 +19846,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -19783,7 +19868,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -19855,7 +19940,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -19879,7 +19964,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -19925,7 +20010,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -19949,7 +20034,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C51" s="6">
         <v>0</v>
@@ -19993,7 +20078,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -20122,22 +20207,22 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="188" t="s">
-        <v>365</v>
-      </c>
-      <c r="C1" s="188"/>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="B1" s="190" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="L1" s="189"/>
-      <c r="M1" s="189"/>
-      <c r="N1" s="189"/>
+      <c r="K1" s="191" t="s">
+        <v>362</v>
+      </c>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
+      <c r="N1" s="191"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
@@ -20148,66 +20233,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C3" s="6">
         <v>11</v>
@@ -20227,7 +20312,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="L3" s="6">
         <v>8</v>
@@ -20275,7 +20360,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="L4" s="6">
         <v>9</v>
@@ -20323,7 +20408,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -20351,7 +20436,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
@@ -20371,7 +20456,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L6" s="6">
         <v>2</v>
@@ -20419,7 +20504,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="L7" s="6">
         <v>2</v>
@@ -20447,7 +20532,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -20467,7 +20552,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
@@ -20495,7 +20580,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -20515,7 +20600,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="L9" s="6">
         <v>0</v>
@@ -20533,7 +20618,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
@@ -20563,7 +20648,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L10" s="6">
         <v>0</v>
@@ -20589,7 +20674,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
@@ -20609,7 +20694,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -20655,7 +20740,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="L12" s="6">
         <v>0</v>
@@ -20703,7 +20788,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="L13" s="6">
         <v>0</v>
@@ -20729,7 +20814,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -20749,7 +20834,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -20777,7 +20862,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C15" s="6">
         <v>1</v>
@@ -20797,7 +20882,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L15" s="6">
         <v>0</v>
@@ -20825,7 +20910,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C16" s="6">
         <v>3</v>
@@ -20845,7 +20930,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -20891,7 +20976,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="L17" s="6">
         <v>0</v>
@@ -20917,7 +21002,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -20937,7 +21022,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -20965,7 +21050,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -21009,7 +21094,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C21" s="6">
         <v>2</v>
@@ -21070,7 +21155,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="K23" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.95" customHeight="1">
@@ -21100,7 +21185,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -21190,7 +21275,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C29" s="6">
         <v>1</v>
@@ -21212,7 +21297,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C30" s="6">
         <v>0</v>
@@ -21322,7 +21407,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -21366,7 +21451,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -21388,7 +21473,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C38" s="6">
         <v>0</v>
@@ -21410,7 +21495,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -21544,7 +21629,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -21566,7 +21651,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -21590,7 +21675,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C47" s="6">
         <v>0</v>
@@ -21612,7 +21697,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C48" s="6">
         <v>0</v>
@@ -21658,7 +21743,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -21704,7 +21789,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C52" s="6">
         <v>0</v>
@@ -21750,7 +21835,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C54" s="6">
         <v>0</v>
@@ -21774,7 +21859,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C55" s="6">
         <v>0</v>
@@ -21798,7 +21883,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C56" s="6">
         <v>0</v>
@@ -21820,7 +21905,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C57" s="6">
         <v>0</v>
@@ -21881,25 +21966,25 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" ht="34.950000000000003" customHeight="1">
       <c r="A1" s="4"/>
-      <c r="B1" s="191" t="s">
-        <v>384</v>
-      </c>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="193"/>
+      <c r="B1" s="193" t="s">
+        <v>380</v>
+      </c>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="195"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="194" t="s">
-        <v>385</v>
-      </c>
-      <c r="L1" s="195"/>
-      <c r="M1" s="195"/>
-      <c r="N1" s="195"/>
-      <c r="O1" s="195"/>
-      <c r="P1" s="195"/>
-      <c r="Q1" s="196"/>
+      <c r="K1" s="196" t="s">
+        <v>381</v>
+      </c>
+      <c r="L1" s="197"/>
+      <c r="M1" s="197"/>
+      <c r="N1" s="197"/>
+      <c r="O1" s="197"/>
+      <c r="P1" s="197"/>
+      <c r="Q1" s="198"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
@@ -21907,66 +21992,66 @@
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="21" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="J2" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="R2" s="5"/>
+      <c r="S2" s="192" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="R2" s="5"/>
-      <c r="S2" s="190" t="s">
-        <v>298</v>
-      </c>
-      <c r="T2" s="190"/>
-      <c r="U2" s="190"/>
+      <c r="T2" s="192"/>
+      <c r="U2" s="192"/>
     </row>
     <row r="3" spans="1:21" ht="19.95" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C3" s="6">
         <v>12</v>
@@ -21986,7 +22071,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="L3" s="6">
         <v>7</v>
@@ -22018,7 +22103,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C4" s="6">
         <v>9</v>
@@ -22038,7 +22123,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L4" s="6">
         <v>1</v>
@@ -22090,7 +22175,7 @@
         <v>3</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
@@ -22122,7 +22207,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C6" s="6">
         <v>6</v>
@@ -22142,7 +22227,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -22174,7 +22259,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C7" s="6">
         <v>2</v>
@@ -22194,7 +22279,7 @@
         <v>5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="L7" s="6">
         <v>3</v>
@@ -22246,7 +22331,7 @@
         <v>6</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L8" s="6">
         <v>1</v>
@@ -22278,7 +22363,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C9" s="6">
         <v>0</v>
@@ -22298,7 +22383,7 @@
         <v>7</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="L9" s="6">
         <v>1</v>
@@ -22316,7 +22401,7 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="T9" s="6">
         <v>7</v>
@@ -22350,7 +22435,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L10" s="6">
         <v>2</v>
@@ -22376,7 +22461,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C11" s="6">
         <v>0</v>
@@ -22396,7 +22481,7 @@
         <v>9</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="L11" s="6">
         <v>0</v>
@@ -22422,7 +22507,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C12" s="6">
         <v>0</v>
@@ -22442,7 +22527,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="L12" s="6">
         <v>2</v>
@@ -22468,7 +22553,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C13" s="6">
         <v>0</v>
@@ -22488,7 +22573,7 @@
         <v>11</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L13" s="6">
         <v>1</v>
@@ -22514,7 +22599,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C14" s="6">
         <v>1</v>
@@ -22534,7 +22619,7 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="L14" s="6">
         <v>2</v>
@@ -22560,7 +22645,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -22580,7 +22665,7 @@
         <v>13</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="L15" s="6">
         <v>2</v>
@@ -22606,7 +22691,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -22626,7 +22711,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="L16" s="6">
         <v>0</v>
@@ -22652,7 +22737,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C17" s="6">
         <v>0</v>
@@ -22672,7 +22757,7 @@
         <v>15</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L17" s="6">
         <v>1</v>
@@ -22718,7 +22803,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L18" s="6">
         <v>0</v>
@@ -22744,7 +22829,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C19" s="6">
         <v>0</v>
@@ -22766,7 +22851,7 @@
         <v>17</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="L19" s="6">
         <v>4</v>
@@ -22792,7 +22877,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C20" s="6">
         <v>0</v>
@@ -22812,7 +22897,7 @@
         <v>18</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L20" s="6">
         <v>2</v>
@@ -22858,7 +22943,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L21" s="6">
         <v>0</v>
@@ -22904,7 +22989,7 @@
         <v>20</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L22" s="6">
         <v>2</v>
@@ -22930,7 +23015,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -22950,7 +23035,7 @@
         <v>21</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="L23" s="6">
         <v>0</v>
@@ -22996,7 +23081,7 @@
         <v>22</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="L24" s="6">
         <v>0</v>
@@ -23042,7 +23127,7 @@
         <v>23</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="L25" s="6">
         <v>1</v>
@@ -23088,7 +23173,7 @@
         <v>24</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="L26" s="6">
         <v>0</v>
@@ -23134,7 +23219,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L27" s="6">
         <v>0</v>
@@ -23180,7 +23265,7 @@
         <v>26</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="L28" s="6">
         <v>0</v>
@@ -23206,7 +23291,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -23226,7 +23311,7 @@
         <v>27</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="L29" s="6">
         <v>1</v>
@@ -23274,7 +23359,7 @@
         <v>28</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="L30" s="6">
         <v>0</v>
@@ -23300,7 +23385,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C31" s="6">
         <v>0</v>
@@ -23320,7 +23405,7 @@
         <v>29</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="L31" s="6">
         <v>1</v>
@@ -23346,7 +23431,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -23366,7 +23451,7 @@
         <v>30</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="L32" s="6">
         <v>0</v>
@@ -23416,7 +23501,7 @@
         <v>31</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L33" s="6">
         <v>0</v>
@@ -23464,7 +23549,7 @@
         <v>32</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="L34" s="6">
         <v>0</v>
@@ -23492,7 +23577,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C35" s="6">
         <v>0</v>
@@ -23512,7 +23597,7 @@
         <v>33</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="L35" s="6">
         <v>0</v>
@@ -23562,7 +23647,7 @@
         <v>34</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="L36" s="6">
         <v>0</v>
@@ -23590,7 +23675,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C37" s="6">
         <v>0</v>
@@ -23610,7 +23695,7 @@
         <v>35</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="L37" s="6">
         <v>0</v>
@@ -23658,7 +23743,7 @@
         <v>36</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="L38" s="6">
         <v>0</v>
@@ -23686,7 +23771,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C39" s="6">
         <v>0</v>
@@ -23706,7 +23791,7 @@
         <v>37</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="L39" s="6">
         <v>0</v>
@@ -23756,7 +23841,7 @@
         <v>38</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="L40" s="6">
         <v>0</v>
@@ -23784,7 +23869,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C41" s="6">
         <v>0</v>
@@ -23806,7 +23891,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C42" s="6">
         <v>0</v>
@@ -23828,7 +23913,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C43" s="6">
         <v>0</v>
@@ -23850,7 +23935,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C44" s="6">
         <v>0</v>
@@ -23874,7 +23959,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C45" s="6">
         <v>0</v>
@@ -23896,7 +23981,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C46" s="6">
         <v>0</v>
@@ -23964,7 +24049,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C49" s="6">
         <v>0</v>
@@ -23986,7 +24071,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C50" s="6">
         <v>0</v>
@@ -24056,7 +24141,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C53" s="6">
         <v>0</v>
@@ -24120,28 +24205,28 @@
       <c r="H55" s="6"/>
     </row>
     <row r="57" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A57" s="197" t="s">
-        <v>434</v>
-      </c>
-      <c r="B57" s="197"/>
-      <c r="C57" s="197"/>
-      <c r="D57" s="197"/>
-      <c r="E57" s="197"/>
-      <c r="F57" s="197"/>
-      <c r="G57" s="197"/>
-      <c r="H57" s="197"/>
+      <c r="A57" s="199" t="s">
+        <v>430</v>
+      </c>
+      <c r="B57" s="199"/>
+      <c r="C57" s="199"/>
+      <c r="D57" s="199"/>
+      <c r="E57" s="199"/>
+      <c r="F57" s="199"/>
+      <c r="G57" s="199"/>
+      <c r="H57" s="199"/>
     </row>
     <row r="58" spans="1:8" ht="19.95" customHeight="1">
-      <c r="A58" s="197" t="s">
-        <v>435</v>
-      </c>
-      <c r="B58" s="197"/>
-      <c r="C58" s="197"/>
-      <c r="D58" s="197"/>
-      <c r="E58" s="197"/>
-      <c r="F58" s="197"/>
-      <c r="G58" s="197"/>
-      <c r="H58" s="197"/>
+      <c r="A58" s="199" t="s">
+        <v>431</v>
+      </c>
+      <c r="B58" s="199"/>
+      <c r="C58" s="199"/>
+      <c r="D58" s="199"/>
+      <c r="E58" s="199"/>
+      <c r="F58" s="199"/>
+      <c r="G58" s="199"/>
+      <c r="H58" s="199"/>
     </row>
   </sheetData>
   <mergeCells count="5">
